--- a/uploads/excel/sample.xlsx
+++ b/uploads/excel/sample.xlsx
@@ -101,19 +101,19 @@
     <t>IT Department</t>
   </si>
   <si>
-    <t>Jonah Faye Benares</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test7</t>
+    <t>Lumber</t>
+  </si>
+  <si>
+    <t>Nails</t>
+  </si>
+  <si>
+    <t>Hasp</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>Stephine David Severino</t>
   </si>
 </sst>
 </file>
@@ -320,10 +320,64 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -335,61 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -730,7 +730,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,14 +756,14 @@
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -771,14 +771,14 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="12"/>
@@ -786,14 +786,14 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="12"/>
@@ -801,100 +801,98 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="H7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="28"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="16">
-        <v>43497</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="24">
+        <v>43642</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="H8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="28"/>
+      <c r="I8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="27"/>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="16">
-        <v>43497</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="H9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
-      <c r="J9" s="28"/>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
+      <c r="J9" s="27"/>
       <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="8"/>
@@ -904,16 +902,16 @@
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -921,17 +919,17 @@
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -946,17 +944,17 @@
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -966,47 +964,47 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="5">
-        <v>23383</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="16">
-        <v>43497</v>
-      </c>
-      <c r="K14" s="17"/>
+        <v>12111</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="24">
+        <v>43502</v>
+      </c>
+      <c r="K14" s="39"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
       <c r="B15" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1222</v>
+      </c>
+      <c r="E15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5">
-        <v>23332</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="16">
-        <v>43497</v>
-      </c>
-      <c r="K15" s="17"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="24">
+        <v>43512</v>
+      </c>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1016,43 +1014,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" s="5">
-        <v>23623</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="16">
-        <v>43497</v>
-      </c>
-      <c r="K16" s="17"/>
+        <v>1233</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="24">
+        <v>43514</v>
+      </c>
+      <c r="K16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="I9:K9"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
@@ -1061,6 +1041,24 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
